--- a/Final_Data/Other_BLS_Data_Final.xlsx
+++ b/Final_Data/Other_BLS_Data_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamst\Documents\Viz\W209-Final\Final_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1249C7-586B-445C-8EAB-2FC07CABB24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D700766A-5B14-40F3-9C51-D9F7713755AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CCC2A7C-B94B-48C8-B4F9-530ABEF37C54}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>Series ID</t>
   </si>
   <si>
@@ -79,21 +76,12 @@
     <t>Top</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
     <t>LEU0252883900</t>
   </si>
   <si>
     <t>Earnings - White Men</t>
   </si>
   <si>
-    <t>Race and Gender</t>
-  </si>
-  <si>
     <t>LEU0252884200</t>
   </si>
   <si>
@@ -257,6 +245,18 @@
   </si>
   <si>
     <t>LNS14000002</t>
+  </si>
+  <si>
+    <t>By Gender</t>
+  </si>
+  <si>
+    <t>By Race</t>
+  </si>
+  <si>
+    <t>By Race and Gender</t>
+  </si>
+  <si>
+    <t>By Education</t>
   </si>
 </sst>
 </file>
@@ -619,464 +619,462 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB36D4E-21E8-4B44-992A-C0473451182F}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Final_Data/Other_BLS_Data_Final.xlsx
+++ b/Final_Data/Other_BLS_Data_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamst\Documents\Viz\W209-Final\Final_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D700766A-5B14-40F3-9C51-D9F7713755AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3ED03-7602-42D5-94AE-4666F221AAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1CCC2A7C-B94B-48C8-B4F9-530ABEF37C54}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Top</t>
-  </si>
-  <si>
     <t>LEU0252883900</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>By Education</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -654,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -682,12 +682,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -696,385 +696,385 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
